--- a/branches/Specimen-resource-dev--FIG-48/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Specimen-resource-dev--FIG-48/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T09:10:23+00:00</t>
+    <t>2023-02-15T09:11:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Specimen-resource-dev--FIG-48/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Specimen-resource-dev--FIG-48/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T09:11:23+00:00</t>
+    <t>2023-02-15T10:38:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Specimen-resource-dev--FIG-48/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Specimen-resource-dev--FIG-48/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T10:38:48+00:00</t>
+    <t>2023-02-15T10:39:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
